--- a/assets/excel/2022_5-3-2.xlsx
+++ b/assets/excel/2022_5-3-2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring\github\MT_Site\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{680518F0-92EF-43CB-818F-956F3AB539F0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB63886C-67F7-472F-B11F-349058CF5ED4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{10B7351D-F9E0-4FA0-B5C7-ABAFDEAE63E8}"/>
   </bookViews>
